--- a/icd_files/77034.xlsx
+++ b/icd_files/77034.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DFF86-C1FD-4B01-BD9C-93C306F574C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556FFB8B-9455-48ED-AB5E-4EC0B96574F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="368">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -492,12 +492,27 @@
     <t>11-17</t>
   </si>
   <si>
+    <t>11-18</t>
+  </si>
+  <si>
     <t>11-19</t>
   </si>
   <si>
     <t>11-20</t>
   </si>
   <si>
+    <t>11-21</t>
+  </si>
+  <si>
+    <t>11-22</t>
+  </si>
+  <si>
+    <t>11-23</t>
+  </si>
+  <si>
+    <t>11-25</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -507,30 +522,204 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>Olanzapine (Disintegrating Tablet)</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium Extended</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>LeVETiracetam</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>Syringe (Sterile Water)</t>
+  </si>
+  <si>
+    <t>Nystatin Oral Suspension</t>
+  </si>
+  <si>
+    <t>Acetaminophen IV</t>
+  </si>
+  <si>
+    <t>Phytonadione</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
   </si>
   <si>
-    <t>Lorazepam</t>
+    <t>0.9% Sodium Chloride</t>
   </si>
   <si>
     <t>Acyclovir</t>
   </si>
   <si>
+    <t>Iso-Osmotic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Sterile Water</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
+    <t>Vancomycin Oral Liquid</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Ganciclovir</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Atovaquone Suspension</t>
+  </si>
+  <si>
+    <t>Heparin Flush (10 units/ml)</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>0.5-1 TAB</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
     <t>1000 mL</t>
   </si>
   <si>
+    <t>400 mL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>150 mL</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>2-4 BAG</t>
+  </si>
+  <si>
+    <t>80 BAG</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>25-50 VIAL</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>1500 PKT</t>
+  </si>
+  <si>
+    <t>5 SYR</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>25-50 CAP</t>
+  </si>
+  <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
     <t>0.5-1 mL</t>
   </si>
   <si>
-    <t>400 mL</t>
+    <t>15 mL</t>
   </si>
   <si>
     <t>270 mL</t>
   </si>
   <si>
+    <t>1 PKT</t>
+  </si>
+  <si>
     <t>23:29</t>
   </si>
   <si>
@@ -540,12 +729,18 @@
     <t>Obeys Commands</t>
   </si>
   <si>
-    <t>100 mL</t>
-  </si>
-  <si>
     <t>1 mL</t>
   </si>
   <si>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>250 SYR</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>250 mL</t>
   </si>
   <si>
@@ -561,6 +756,12 @@
     <t>20:26</t>
   </si>
   <si>
+    <t>250 VIAL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -570,6 +771,15 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>150 VIAL</t>
+  </si>
+  <si>
+    <t>4 VIAL</t>
+  </si>
+  <si>
     <t>08:47</t>
   </si>
   <si>
@@ -597,10 +807,52 @@
     <t>16:31</t>
   </si>
   <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>11:00</t>
   </si>
   <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
+    <t>6 SYR</t>
+  </si>
+  <si>
+    <t>5 UDCUP</t>
+  </si>
+  <si>
+    <t>400 SYR</t>
+  </si>
+  <si>
+    <t>0.5 TAB</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
     <t>100 BAG</t>
+  </si>
+  <si>
+    <t>200 BAG</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3695,7 +3947,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000000-A0EE-4FF5-8B95-9A0B7D7EF245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4537,7 +4789,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000001-A0EE-4FF5-8B95-9A0B7D7EF245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5379,7 +5631,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000002-A0EE-4FF5-8B95-9A0B7D7EF245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6254,7 +6506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000003-A0EE-4FF5-8B95-9A0B7D7EF245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7117,7 +7369,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000004-A0EE-4FF5-8B95-9A0B7D7EF245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7683,7 +7935,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000005-A0EE-4FF5-8B95-9A0B7D7EF245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8184,7 +8436,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000006-A0EE-4FF5-8B95-9A0B7D7EF245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8685,7 +8937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000007-A0EE-4FF5-8B95-9A0B7D7EF245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9186,7 +9438,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000008-A0EE-4FF5-8B95-9A0B7D7EF245}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9629,7 +9881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF103CB3-148B-40E4-B1CF-6234AF1ED2F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C603BD-8EB4-4767-A4D0-0D7BF8F8B2F0}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -9654,7 +9906,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9667,7 +9919,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -9680,7 +9932,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -9693,7 +9945,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -9706,27 +9958,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -9754,7 +10006,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -9782,11 +10034,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -9809,7 +10061,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9846,7 +10098,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -9869,14 +10121,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -9899,14 +10151,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -9929,14 +10181,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -9959,14 +10211,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -9989,16 +10241,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -10021,14 +10273,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -10051,10 +10303,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -10062,7 +10314,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -10074,7 +10326,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -10097,7 +10349,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -10113,11 +10365,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -10140,7 +10392,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -10158,7 +10410,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -10181,7 +10433,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -10200,7 +10452,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -10223,10 +10475,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -10244,7 +10496,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -10267,52 +10519,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -10335,53 +10587,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -10404,43 +10656,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -10448,7 +10700,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -10471,43 +10723,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -10515,7 +10767,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -10538,43 +10790,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -10582,7 +10834,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -10605,43 +10857,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -10649,7 +10901,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -10672,43 +10924,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -10716,7 +10968,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -10739,43 +10991,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -10783,7 +11035,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -10806,43 +11058,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -10850,7 +11102,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -10873,43 +11125,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -10917,7 +11169,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -10940,43 +11192,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -10984,7 +11236,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -11007,43 +11259,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -11051,7 +11303,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -11074,43 +11326,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -11118,7 +11370,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -11141,7 +11393,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -11154,10 +11406,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -11165,7 +11417,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -11188,14 +11440,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -11210,7 +11462,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -11233,7 +11485,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -11253,7 +11505,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -11276,7 +11528,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -11296,7 +11548,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -11319,7 +11571,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -11337,11 +11589,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -11364,14 +11616,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -11394,14 +11646,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -11424,14 +11676,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -11454,14 +11706,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -11484,14 +11736,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -11514,14 +11766,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -11544,10 +11796,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -11564,7 +11816,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -11587,7 +11839,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -11605,7 +11857,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -11628,7 +11880,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -11646,7 +11898,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -11669,14 +11921,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -11699,14 +11951,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -11729,24 +11981,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -11769,7 +12021,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -11778,7 +12030,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -11801,14 +12053,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -11816,7 +12068,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -11839,7 +12091,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -11848,7 +12100,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -11871,14 +12123,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>259</v>
+        <v>343</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -11886,7 +12138,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -11909,7 +12161,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -11918,7 +12170,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -11941,24 +12193,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -11981,7 +12233,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -11990,7 +12242,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -12013,22 +12265,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -12036,7 +12288,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -12059,7 +12311,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -12072,7 +12324,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -12095,32 +12347,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -12143,7 +12395,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -12152,7 +12404,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -12175,14 +12427,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -12190,7 +12442,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -12213,14 +12465,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -12243,12 +12495,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -12276,7 +12528,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -12303,13 +12555,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -12337,7 +12589,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -12449,7 +12701,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -12477,7 +12729,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -12505,7 +12757,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -15780,13 +16032,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AT38"/>
+  <dimension ref="A30:DK76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -15794,7 +16046,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:115" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>148</v>
       </c>
@@ -15802,573 +16054,4654 @@
         <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="BO31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="BR31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="BT31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="BY31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="CG31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="CH31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="CI31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="CL31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="CM31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="CN31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="CO31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="CP31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="CQ31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="CR31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="CS31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="CT31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="CU31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="CV31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="CW31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="CX31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="CY31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="CZ31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="DA31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="DB31" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AS31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT31" s="1" t="s">
+      <c r="DC31" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="DD31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DI31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DJ31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DK31" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" t="s">
+        <v>207</v>
+      </c>
+      <c r="N32" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" t="s">
+        <v>207</v>
+      </c>
+      <c r="P32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>207</v>
+      </c>
+      <c r="R32" t="s">
+        <v>207</v>
+      </c>
+      <c r="S32" t="s">
+        <v>207</v>
+      </c>
+      <c r="T32" t="s">
+        <v>207</v>
+      </c>
+      <c r="U32" t="s">
+        <v>207</v>
+      </c>
+      <c r="V32" t="s">
+        <v>207</v>
+      </c>
+      <c r="W32" t="s">
+        <v>207</v>
+      </c>
+      <c r="X32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>240</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>242</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>241</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>242</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>248</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>252</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>255</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>257</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>248</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>247</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>258</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>260</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>248</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>247</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>262</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>241</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>248</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>247</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>241</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>253</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>256</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>256</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>256</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>256</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>259</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="BO34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>254</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>254</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>254</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>254</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>234</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>272</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>224</v>
+      </c>
+      <c r="DF36" t="s">
+        <v>272</v>
+      </c>
+      <c r="DG36" t="s">
+        <v>272</v>
+      </c>
+      <c r="DH36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DH37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DI38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" t="s">
-        <v>164</v>
-      </c>
-      <c r="H32" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" t="s">
-        <v>164</v>
-      </c>
-      <c r="K32" t="s">
-        <v>164</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="DJ39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>229</v>
+      </c>
+      <c r="DJ40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" t="s">
+        <v>208</v>
+      </c>
+      <c r="I42" t="s">
+        <v>208</v>
+      </c>
+      <c r="J42" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s">
+        <v>208</v>
+      </c>
+      <c r="M42" t="s">
+        <v>208</v>
+      </c>
+      <c r="N42" t="s">
+        <v>208</v>
+      </c>
+      <c r="O42" t="s">
+        <v>208</v>
+      </c>
+      <c r="P42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>208</v>
+      </c>
+      <c r="R42" t="s">
+        <v>208</v>
+      </c>
+      <c r="S42" t="s">
+        <v>208</v>
+      </c>
+      <c r="T42" t="s">
+        <v>208</v>
+      </c>
+      <c r="U42" t="s">
+        <v>208</v>
+      </c>
+      <c r="V42" t="s">
+        <v>208</v>
+      </c>
+      <c r="W42" t="s">
+        <v>208</v>
+      </c>
+      <c r="X42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>235</v>
+      </c>
+      <c r="CG42" t="s">
+        <v>235</v>
+      </c>
+      <c r="CR42" t="s">
+        <v>261</v>
+      </c>
+      <c r="DC42" t="s">
+        <v>268</v>
+      </c>
+      <c r="DD42" t="s">
+        <v>268</v>
+      </c>
+      <c r="DE42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" t="s">
+        <v>209</v>
+      </c>
+      <c r="J43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K43" t="s">
+        <v>209</v>
+      </c>
+      <c r="L43" t="s">
+        <v>209</v>
+      </c>
+      <c r="M43" t="s">
+        <v>209</v>
+      </c>
+      <c r="N43" t="s">
+        <v>209</v>
+      </c>
+      <c r="O43" t="s">
+        <v>209</v>
+      </c>
+      <c r="P43" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>209</v>
+      </c>
+      <c r="R43" t="s">
+        <v>209</v>
+      </c>
+      <c r="S43" t="s">
+        <v>209</v>
+      </c>
+      <c r="T43" t="s">
+        <v>209</v>
+      </c>
+      <c r="U43" t="s">
+        <v>209</v>
+      </c>
+      <c r="V43" t="s">
+        <v>209</v>
+      </c>
+      <c r="W43" t="s">
+        <v>209</v>
+      </c>
+      <c r="X43" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>209</v>
+      </c>
+      <c r="CG43" t="s">
+        <v>249</v>
+      </c>
+      <c r="CX43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>244</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>244</v>
+      </c>
+      <c r="CG44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M32" t="s">
+      <c r="CG45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N32" t="s">
+      <c r="BP46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BS46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>236</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O32" t="s">
+      <c r="DB47" t="s">
+        <v>264</v>
+      </c>
+      <c r="DC47" t="s">
+        <v>264</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>264</v>
+      </c>
+      <c r="DE47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="DB48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="S32" t="s">
+      <c r="DB49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="T32" t="s">
-        <v>176</v>
-      </c>
-      <c r="U32" t="s">
-        <v>177</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="DC50" t="s">
+        <v>269</v>
+      </c>
+      <c r="DD50" t="s">
+        <v>269</v>
+      </c>
+      <c r="DE50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="W32" t="s">
-        <v>164</v>
-      </c>
-      <c r="X32" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y32" t="s">
+      <c r="DC51" t="s">
+        <v>270</v>
+      </c>
+      <c r="DD51" t="s">
+        <v>270</v>
+      </c>
+      <c r="DE51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="DC52" t="s">
+        <v>271</v>
+      </c>
+      <c r="DD52" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" t="s">
+        <v>210</v>
+      </c>
+      <c r="H53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I53" t="s">
+        <v>210</v>
+      </c>
+      <c r="J53" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L53" t="s">
+        <v>210</v>
+      </c>
+      <c r="M53" t="s">
+        <v>210</v>
+      </c>
+      <c r="N53" t="s">
+        <v>210</v>
+      </c>
+      <c r="O53" t="s">
+        <v>210</v>
+      </c>
+      <c r="P53" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>210</v>
+      </c>
+      <c r="R53" t="s">
+        <v>210</v>
+      </c>
+      <c r="S53" t="s">
+        <v>210</v>
+      </c>
+      <c r="T53" t="s">
+        <v>210</v>
+      </c>
+      <c r="U53" t="s">
+        <v>210</v>
+      </c>
+      <c r="V53" t="s">
+        <v>210</v>
+      </c>
+      <c r="W53" t="s">
+        <v>210</v>
+      </c>
+      <c r="X53" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BL53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP53" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>239</v>
+      </c>
+      <c r="BR53" t="s">
+        <v>219</v>
+      </c>
+      <c r="BS53" t="s">
+        <v>219</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>239</v>
+      </c>
+      <c r="BU53" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA53" t="s">
+        <v>219</v>
+      </c>
+      <c r="DC53" t="s">
+        <v>210</v>
+      </c>
+      <c r="DD53" t="s">
+        <v>210</v>
+      </c>
+      <c r="DE53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H54" t="s">
+        <v>211</v>
+      </c>
+      <c r="I54" t="s">
+        <v>211</v>
+      </c>
+      <c r="J54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K54" t="s">
+        <v>211</v>
+      </c>
+      <c r="L54" t="s">
+        <v>211</v>
+      </c>
+      <c r="M54" t="s">
+        <v>211</v>
+      </c>
+      <c r="N54" t="s">
+        <v>211</v>
+      </c>
+      <c r="O54" t="s">
+        <v>211</v>
+      </c>
+      <c r="P54" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>211</v>
+      </c>
+      <c r="R54" t="s">
+        <v>211</v>
+      </c>
+      <c r="S54" t="s">
+        <v>211</v>
+      </c>
+      <c r="T54" t="s">
+        <v>211</v>
+      </c>
+      <c r="U54" t="s">
+        <v>211</v>
+      </c>
+      <c r="V54" t="s">
+        <v>211</v>
+      </c>
+      <c r="W54" t="s">
+        <v>211</v>
+      </c>
+      <c r="X54" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>230</v>
+      </c>
+      <c r="DF54" t="s">
+        <v>239</v>
+      </c>
+      <c r="DG54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="DF55" t="s">
+        <v>273</v>
+      </c>
+      <c r="DG55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DF56" t="s">
+        <v>274</v>
+      </c>
+      <c r="DG56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AB32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="DF57" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" t="s">
+        <v>212</v>
+      </c>
+      <c r="G58" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" t="s">
+        <v>212</v>
+      </c>
+      <c r="I58" t="s">
+        <v>212</v>
+      </c>
+      <c r="J58" t="s">
+        <v>212</v>
+      </c>
+      <c r="K58" t="s">
+        <v>212</v>
+      </c>
+      <c r="L58" t="s">
+        <v>212</v>
+      </c>
+      <c r="M58" t="s">
+        <v>212</v>
+      </c>
+      <c r="N58" t="s">
+        <v>212</v>
+      </c>
+      <c r="O58" t="s">
+        <v>212</v>
+      </c>
+      <c r="P58" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>212</v>
+      </c>
+      <c r="R58" t="s">
+        <v>212</v>
+      </c>
+      <c r="S58" t="s">
+        <v>212</v>
+      </c>
+      <c r="T58" t="s">
+        <v>212</v>
+      </c>
+      <c r="U58" t="s">
+        <v>212</v>
+      </c>
+      <c r="V58" t="s">
+        <v>212</v>
+      </c>
+      <c r="W58" t="s">
+        <v>212</v>
+      </c>
+      <c r="X58" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BK58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BL58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" t="s">
+        <v>213</v>
+      </c>
+      <c r="G59" t="s">
+        <v>213</v>
+      </c>
+      <c r="H59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L59" t="s">
+        <v>213</v>
+      </c>
+      <c r="M59" t="s">
+        <v>213</v>
+      </c>
+      <c r="N59" t="s">
+        <v>213</v>
+      </c>
+      <c r="O59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R59" t="s">
+        <v>213</v>
+      </c>
+      <c r="S59" t="s">
+        <v>213</v>
+      </c>
+      <c r="T59" t="s">
+        <v>213</v>
+      </c>
+      <c r="U59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V59" t="s">
+        <v>213</v>
+      </c>
+      <c r="W59" t="s">
+        <v>213</v>
+      </c>
+      <c r="X59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BK59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BL59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BM59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AG32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK32" t="s">
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" t="s">
+        <v>227</v>
+      </c>
+      <c r="H60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60" t="s">
+        <v>227</v>
+      </c>
+      <c r="J60" t="s">
+        <v>214</v>
+      </c>
+      <c r="K60" t="s">
+        <v>227</v>
+      </c>
+      <c r="L60" t="s">
+        <v>227</v>
+      </c>
+      <c r="M60" t="s">
+        <v>227</v>
+      </c>
+      <c r="N60" t="s">
+        <v>227</v>
+      </c>
+      <c r="O60" t="s">
+        <v>214</v>
+      </c>
+      <c r="P60" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>214</v>
+      </c>
+      <c r="R60" t="s">
+        <v>214</v>
+      </c>
+      <c r="S60" t="s">
+        <v>227</v>
+      </c>
+      <c r="T60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U60" t="s">
+        <v>227</v>
+      </c>
+      <c r="V60" t="s">
+        <v>227</v>
+      </c>
+      <c r="W60" t="s">
+        <v>214</v>
+      </c>
+      <c r="X60" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AL32" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" t="s">
-        <v>170</v>
-      </c>
-      <c r="L33" t="s">
-        <v>170</v>
-      </c>
-      <c r="M33" t="s">
-        <v>170</v>
-      </c>
-      <c r="N33" t="s">
-        <v>170</v>
-      </c>
-      <c r="O33" t="s">
-        <v>170</v>
-      </c>
-      <c r="P33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>170</v>
-      </c>
-      <c r="R33" t="s">
-        <v>170</v>
-      </c>
-      <c r="S33" t="s">
-        <v>170</v>
-      </c>
-      <c r="T33" t="s">
-        <v>170</v>
-      </c>
-      <c r="U33" t="s">
-        <v>170</v>
-      </c>
-      <c r="V33" t="s">
-        <v>170</v>
-      </c>
-      <c r="W33" t="s">
-        <v>170</v>
-      </c>
-      <c r="X33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>171</v>
-      </c>
-      <c r="R34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S34" t="s">
-        <v>171</v>
-      </c>
-      <c r="T34" t="s">
-        <v>171</v>
-      </c>
-      <c r="U34" t="s">
-        <v>171</v>
-      </c>
-      <c r="V34" t="s">
-        <v>171</v>
-      </c>
-      <c r="W34" t="s">
-        <v>171</v>
-      </c>
-      <c r="X34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H36" t="s">
-        <v>174</v>
-      </c>
-      <c r="I36" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" t="s">
-        <v>172</v>
-      </c>
-      <c r="K36" t="s">
-        <v>172</v>
-      </c>
-      <c r="P36" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR36" t="s">
+      <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" t="s">
+        <v>215</v>
+      </c>
+      <c r="I61" t="s">
+        <v>215</v>
+      </c>
+      <c r="J61" t="s">
+        <v>215</v>
+      </c>
+      <c r="K61" t="s">
+        <v>215</v>
+      </c>
+      <c r="L61" t="s">
+        <v>215</v>
+      </c>
+      <c r="M61" t="s">
+        <v>215</v>
+      </c>
+      <c r="N61" t="s">
+        <v>215</v>
+      </c>
+      <c r="O61" t="s">
+        <v>215</v>
+      </c>
+      <c r="P61" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>215</v>
+      </c>
+      <c r="R61" t="s">
+        <v>215</v>
+      </c>
+      <c r="S61" t="s">
+        <v>215</v>
+      </c>
+      <c r="T61" t="s">
+        <v>215</v>
+      </c>
+      <c r="U61" t="s">
+        <v>215</v>
+      </c>
+      <c r="V61" t="s">
+        <v>215</v>
+      </c>
+      <c r="W61" t="s">
+        <v>215</v>
+      </c>
+      <c r="X61" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BG61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BM61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AS36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" t="s">
-        <v>173</v>
-      </c>
-      <c r="H37" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" t="s">
-        <v>173</v>
-      </c>
-      <c r="J37" t="s">
-        <v>173</v>
-      </c>
-      <c r="K37" t="s">
-        <v>173</v>
-      </c>
-      <c r="W37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>174</v>
+      <c r="B62" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" t="s">
+        <v>225</v>
+      </c>
+      <c r="H62" t="s">
+        <v>216</v>
+      </c>
+      <c r="I62" t="s">
+        <v>216</v>
+      </c>
+      <c r="J62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K62" t="s">
+        <v>216</v>
+      </c>
+      <c r="L62" t="s">
+        <v>216</v>
+      </c>
+      <c r="M62" t="s">
+        <v>225</v>
+      </c>
+      <c r="N62" t="s">
+        <v>225</v>
+      </c>
+      <c r="O62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P62" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>216</v>
+      </c>
+      <c r="R62" t="s">
+        <v>225</v>
+      </c>
+      <c r="S62" t="s">
+        <v>216</v>
+      </c>
+      <c r="T62" t="s">
+        <v>216</v>
+      </c>
+      <c r="U62" t="s">
+        <v>225</v>
+      </c>
+      <c r="V62" t="s">
+        <v>225</v>
+      </c>
+      <c r="W62" t="s">
+        <v>216</v>
+      </c>
+      <c r="X62" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BG62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BQ64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BR64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BS64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BT64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BQ65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BR65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BT65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BU65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BQ66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BR66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BS66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BT66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ67" t="s">
+        <v>245</v>
+      </c>
+      <c r="CA67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" t="s">
+        <v>217</v>
+      </c>
+      <c r="E68" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
+      </c>
+      <c r="G68" t="s">
+        <v>217</v>
+      </c>
+      <c r="H68" t="s">
+        <v>217</v>
+      </c>
+      <c r="I68" t="s">
+        <v>217</v>
+      </c>
+      <c r="J68" t="s">
+        <v>217</v>
+      </c>
+      <c r="K68" t="s">
+        <v>217</v>
+      </c>
+      <c r="L68" t="s">
+        <v>217</v>
+      </c>
+      <c r="M68" t="s">
+        <v>217</v>
+      </c>
+      <c r="N68" t="s">
+        <v>217</v>
+      </c>
+      <c r="O68" t="s">
+        <v>217</v>
+      </c>
+      <c r="P68" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>217</v>
+      </c>
+      <c r="R68" t="s">
+        <v>217</v>
+      </c>
+      <c r="S68" t="s">
+        <v>217</v>
+      </c>
+      <c r="T68" t="s">
+        <v>217</v>
+      </c>
+      <c r="U68" t="s">
+        <v>217</v>
+      </c>
+      <c r="V68" t="s">
+        <v>217</v>
+      </c>
+      <c r="W68" t="s">
+        <v>217</v>
+      </c>
+      <c r="X68" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BA68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BB68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BG68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BI68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BJ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BL68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BZ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="CA68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BZ69" t="s">
+        <v>230</v>
+      </c>
+      <c r="CA69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" t="s">
+        <v>218</v>
+      </c>
+      <c r="E70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" t="s">
+        <v>218</v>
+      </c>
+      <c r="G70" t="s">
+        <v>218</v>
+      </c>
+      <c r="H70" t="s">
+        <v>218</v>
+      </c>
+      <c r="I70" t="s">
+        <v>218</v>
+      </c>
+      <c r="J70" t="s">
+        <v>218</v>
+      </c>
+      <c r="K70" t="s">
+        <v>218</v>
+      </c>
+      <c r="L70" t="s">
+        <v>218</v>
+      </c>
+      <c r="M70" t="s">
+        <v>218</v>
+      </c>
+      <c r="N70" t="s">
+        <v>218</v>
+      </c>
+      <c r="O70" t="s">
+        <v>218</v>
+      </c>
+      <c r="P70" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>218</v>
+      </c>
+      <c r="R70" t="s">
+        <v>218</v>
+      </c>
+      <c r="S70" t="s">
+        <v>218</v>
+      </c>
+      <c r="T70" t="s">
+        <v>218</v>
+      </c>
+      <c r="U70" t="s">
+        <v>218</v>
+      </c>
+      <c r="V70" t="s">
+        <v>218</v>
+      </c>
+      <c r="W70" t="s">
+        <v>218</v>
+      </c>
+      <c r="X70" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BH70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BK70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" t="s">
+        <v>219</v>
+      </c>
+      <c r="F71" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" t="s">
+        <v>219</v>
+      </c>
+      <c r="H71" t="s">
+        <v>219</v>
+      </c>
+      <c r="I71" t="s">
+        <v>219</v>
+      </c>
+      <c r="J71" t="s">
+        <v>219</v>
+      </c>
+      <c r="K71" t="s">
+        <v>219</v>
+      </c>
+      <c r="L71" t="s">
+        <v>219</v>
+      </c>
+      <c r="M71" t="s">
+        <v>219</v>
+      </c>
+      <c r="N71" t="s">
+        <v>219</v>
+      </c>
+      <c r="O71" t="s">
+        <v>219</v>
+      </c>
+      <c r="P71" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>219</v>
+      </c>
+      <c r="R71" t="s">
+        <v>219</v>
+      </c>
+      <c r="S71" t="s">
+        <v>219</v>
+      </c>
+      <c r="T71" t="s">
+        <v>219</v>
+      </c>
+      <c r="U71" t="s">
+        <v>219</v>
+      </c>
+      <c r="V71" t="s">
+        <v>219</v>
+      </c>
+      <c r="W71" t="s">
+        <v>219</v>
+      </c>
+      <c r="X71" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BI71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BK71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" t="s">
+        <v>220</v>
+      </c>
+      <c r="G72" t="s">
+        <v>226</v>
+      </c>
+      <c r="H72" t="s">
+        <v>220</v>
+      </c>
+      <c r="I72" t="s">
+        <v>226</v>
+      </c>
+      <c r="J72" t="s">
+        <v>220</v>
+      </c>
+      <c r="K72" t="s">
+        <v>226</v>
+      </c>
+      <c r="L72" t="s">
+        <v>220</v>
+      </c>
+      <c r="M72" t="s">
+        <v>226</v>
+      </c>
+      <c r="N72" t="s">
+        <v>220</v>
+      </c>
+      <c r="O72" t="s">
+        <v>226</v>
+      </c>
+      <c r="P72" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>220</v>
+      </c>
+      <c r="R72" t="s">
+        <v>220</v>
+      </c>
+      <c r="S72" t="s">
+        <v>226</v>
+      </c>
+      <c r="T72" t="s">
+        <v>220</v>
+      </c>
+      <c r="U72" t="s">
+        <v>226</v>
+      </c>
+      <c r="V72" t="s">
+        <v>220</v>
+      </c>
+      <c r="W72" t="s">
+        <v>226</v>
+      </c>
+      <c r="X72" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BG72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BH72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BJ72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" t="s">
+        <v>221</v>
+      </c>
+      <c r="H73" t="s">
+        <v>221</v>
+      </c>
+      <c r="I73" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" t="s">
+        <v>221</v>
+      </c>
+      <c r="K73" t="s">
+        <v>221</v>
+      </c>
+      <c r="L73" t="s">
+        <v>221</v>
+      </c>
+      <c r="M73" t="s">
+        <v>221</v>
+      </c>
+      <c r="N73" t="s">
+        <v>221</v>
+      </c>
+      <c r="O73" t="s">
+        <v>221</v>
+      </c>
+      <c r="P73" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>221</v>
+      </c>
+      <c r="R73" t="s">
+        <v>221</v>
+      </c>
+      <c r="S73" t="s">
+        <v>221</v>
+      </c>
+      <c r="T73" t="s">
+        <v>221</v>
+      </c>
+      <c r="U73" t="s">
+        <v>221</v>
+      </c>
+      <c r="V73" t="s">
+        <v>221</v>
+      </c>
+      <c r="W73" t="s">
+        <v>221</v>
+      </c>
+      <c r="X73" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BF73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BG73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BH73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BI73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BL73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BM73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" t="s">
+        <v>222</v>
+      </c>
+      <c r="H74" t="s">
+        <v>222</v>
+      </c>
+      <c r="I74" t="s">
+        <v>222</v>
+      </c>
+      <c r="J74" t="s">
+        <v>222</v>
+      </c>
+      <c r="K74" t="s">
+        <v>222</v>
+      </c>
+      <c r="L74" t="s">
+        <v>222</v>
+      </c>
+      <c r="M74" t="s">
+        <v>222</v>
+      </c>
+      <c r="N74" t="s">
+        <v>222</v>
+      </c>
+      <c r="O74" t="s">
+        <v>222</v>
+      </c>
+      <c r="P74" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>222</v>
+      </c>
+      <c r="R74" t="s">
+        <v>222</v>
+      </c>
+      <c r="S74" t="s">
+        <v>222</v>
+      </c>
+      <c r="T74" t="s">
+        <v>222</v>
+      </c>
+      <c r="U74" t="s">
+        <v>222</v>
+      </c>
+      <c r="V74" t="s">
+        <v>222</v>
+      </c>
+      <c r="W74" t="s">
+        <v>222</v>
+      </c>
+      <c r="X74" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BI74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BM74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" t="s">
+        <v>223</v>
+      </c>
+      <c r="H75" t="s">
+        <v>223</v>
+      </c>
+      <c r="I75" t="s">
+        <v>223</v>
+      </c>
+      <c r="J75" t="s">
+        <v>223</v>
+      </c>
+      <c r="K75" t="s">
+        <v>223</v>
+      </c>
+      <c r="L75" t="s">
+        <v>223</v>
+      </c>
+      <c r="M75" t="s">
+        <v>223</v>
+      </c>
+      <c r="N75" t="s">
+        <v>223</v>
+      </c>
+      <c r="O75" t="s">
+        <v>223</v>
+      </c>
+      <c r="P75" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>223</v>
+      </c>
+      <c r="R75" t="s">
+        <v>223</v>
+      </c>
+      <c r="S75" t="s">
+        <v>223</v>
+      </c>
+      <c r="T75" t="s">
+        <v>223</v>
+      </c>
+      <c r="U75" t="s">
+        <v>223</v>
+      </c>
+      <c r="V75" t="s">
+        <v>223</v>
+      </c>
+      <c r="W75" t="s">
+        <v>223</v>
+      </c>
+      <c r="X75" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BG75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BI75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BK75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BM75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" t="s">
+        <v>224</v>
+      </c>
+      <c r="G76" t="s">
+        <v>224</v>
+      </c>
+      <c r="H76" t="s">
+        <v>224</v>
+      </c>
+      <c r="I76" t="s">
+        <v>224</v>
+      </c>
+      <c r="J76" t="s">
+        <v>224</v>
+      </c>
+      <c r="K76" t="s">
+        <v>224</v>
+      </c>
+      <c r="L76" t="s">
+        <v>224</v>
+      </c>
+      <c r="M76" t="s">
+        <v>224</v>
+      </c>
+      <c r="N76" t="s">
+        <v>224</v>
+      </c>
+      <c r="O76" t="s">
+        <v>224</v>
+      </c>
+      <c r="P76" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>224</v>
+      </c>
+      <c r="R76" t="s">
+        <v>224</v>
+      </c>
+      <c r="S76" t="s">
+        <v>224</v>
+      </c>
+      <c r="T76" t="s">
+        <v>224</v>
+      </c>
+      <c r="U76" t="s">
+        <v>224</v>
+      </c>
+      <c r="V76" t="s">
+        <v>224</v>
+      </c>
+      <c r="W76" t="s">
+        <v>224</v>
+      </c>
+      <c r="X76" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BG76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BI76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM76" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/77034.xlsx
+++ b/icd_files/77034.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DFF86-C1FD-4B01-BD9C-93C306F574C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7023FDEA-51B5-434F-AA1D-C6E298788ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="368">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -492,12 +492,27 @@
     <t>11-17</t>
   </si>
   <si>
+    <t>11-18</t>
+  </si>
+  <si>
     <t>11-19</t>
   </si>
   <si>
     <t>11-20</t>
   </si>
   <si>
+    <t>11-21</t>
+  </si>
+  <si>
+    <t>11-22</t>
+  </si>
+  <si>
+    <t>11-23</t>
+  </si>
+  <si>
+    <t>11-25</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -507,30 +522,204 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>Olanzapine (Disintegrating Tablet)</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium Extended</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Phenytoin Sodium</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>LeVETiracetam</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>Syringe (Sterile Water)</t>
+  </si>
+  <si>
+    <t>Nystatin Oral Suspension</t>
+  </si>
+  <si>
+    <t>Acetaminophen IV</t>
+  </si>
+  <si>
+    <t>Phytonadione</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
   </si>
   <si>
-    <t>Lorazepam</t>
+    <t>0.9% Sodium Chloride</t>
   </si>
   <si>
     <t>Acyclovir</t>
   </si>
   <si>
+    <t>Iso-Osmotic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Sterile Water</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
+    <t>Vancomycin Oral Liquid</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Ganciclovir</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Atovaquone Suspension</t>
+  </si>
+  <si>
+    <t>Heparin Flush (10 units/ml)</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>0.5-1 TAB</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
     <t>1000 mL</t>
   </si>
   <si>
+    <t>400 mL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>150 mL</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>2-4 BAG</t>
+  </si>
+  <si>
+    <t>80 BAG</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>25-50 VIAL</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>1500 PKT</t>
+  </si>
+  <si>
+    <t>5 SYR</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>25-50 CAP</t>
+  </si>
+  <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
     <t>0.5-1 mL</t>
   </si>
   <si>
-    <t>400 mL</t>
+    <t>15 mL</t>
   </si>
   <si>
     <t>270 mL</t>
   </si>
   <si>
+    <t>1 PKT</t>
+  </si>
+  <si>
     <t>23:29</t>
   </si>
   <si>
@@ -540,12 +729,18 @@
     <t>Obeys Commands</t>
   </si>
   <si>
-    <t>100 mL</t>
-  </si>
-  <si>
     <t>1 mL</t>
   </si>
   <si>
+    <t>500 mL</t>
+  </si>
+  <si>
+    <t>250 SYR</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>250 mL</t>
   </si>
   <si>
@@ -561,6 +756,12 @@
     <t>20:26</t>
   </si>
   <si>
+    <t>250 VIAL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -570,6 +771,15 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>150 VIAL</t>
+  </si>
+  <si>
+    <t>4 VIAL</t>
+  </si>
+  <si>
     <t>08:47</t>
   </si>
   <si>
@@ -597,10 +807,52 @@
     <t>16:31</t>
   </si>
   <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>11:00</t>
   </si>
   <si>
+    <t>500 TAB</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
+    <t>6 SYR</t>
+  </si>
+  <si>
+    <t>5 UDCUP</t>
+  </si>
+  <si>
+    <t>400 SYR</t>
+  </si>
+  <si>
+    <t>0.5 TAB</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
     <t>100 BAG</t>
+  </si>
+  <si>
+    <t>200 BAG</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3695,7 +3947,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000000-9146-409B-951F-3FAC66E40958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4537,7 +4789,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000001-9146-409B-951F-3FAC66E40958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5379,7 +5631,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000002-9146-409B-951F-3FAC66E40958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6254,7 +6506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000003-9146-409B-951F-3FAC66E40958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7117,7 +7369,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000004-9146-409B-951F-3FAC66E40958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7683,7 +7935,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000005-9146-409B-951F-3FAC66E40958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8184,7 +8436,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000006-9146-409B-951F-3FAC66E40958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8685,7 +8937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000007-9146-409B-951F-3FAC66E40958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9186,7 +9438,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-71FF-4BB7-BF8E-5B8601503602}"/>
+              <c16:uniqueId val="{00000008-9146-409B-951F-3FAC66E40958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9629,7 +9881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF103CB3-148B-40E4-B1CF-6234AF1ED2F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A50F39A-A1CC-4B6D-B4EE-A413E83B60B2}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -9654,7 +9906,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9667,7 +9919,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -9680,7 +9932,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -9693,7 +9945,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -9706,27 +9958,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -9754,7 +10006,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -9782,11 +10034,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -9809,7 +10061,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9846,7 +10098,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -9869,14 +10121,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -9899,14 +10151,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -9929,14 +10181,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -9959,14 +10211,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -9989,16 +10241,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -10021,14 +10273,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -10051,10 +10303,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -10062,7 +10314,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -10074,7 +10326,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -10097,7 +10349,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -10113,11 +10365,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -10140,7 +10392,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -10158,7 +10410,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -10181,7 +10433,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -10200,7 +10452,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -10223,10 +10475,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -10244,7 +10496,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -10267,52 +10519,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -10335,53 +10587,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -10404,43 +10656,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -10448,7 +10700,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -10471,43 +10723,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -10515,7 +10767,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -10538,43 +10790,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -10582,7 +10834,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -10605,43 +10857,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -10649,7 +10901,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -10672,43 +10924,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -10716,7 +10968,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -10739,43 +10991,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -10783,7 +11035,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -10806,43 +11058,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -10850,7 +11102,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -10873,43 +11125,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -10917,7 +11169,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -10940,43 +11192,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -10984,7 +11236,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -11007,43 +11259,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -11051,7 +11303,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -11074,43 +11326,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -11118,7 +11370,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -11141,7 +11393,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -11154,10 +11406,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -11165,7 +11417,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -11188,14 +11440,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -11210,7 +11462,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -11233,7 +11485,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -11253,7 +11505,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -11276,7 +11528,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -11296,7 +11548,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -11319,7 +11571,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -11337,11 +11589,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -11364,14 +11616,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -11394,14 +11646,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -11424,14 +11676,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -11454,14 +11706,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -11484,14 +11736,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -11514,14 +11766,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -11544,10 +11796,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -11564,7 +11816,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -11587,7 +11839,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -11605,7 +11857,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -11628,7 +11880,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -11646,7 +11898,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -11669,14 +11921,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -11699,14 +11951,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -11729,24 +11981,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -11769,7 +12021,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -11778,7 +12030,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -11801,14 +12053,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -11816,7 +12068,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -11839,7 +12091,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -11848,7 +12100,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -11871,14 +12123,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>259</v>
+        <v>343</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -11886,7 +12138,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -11909,7 +12161,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -11918,7 +12170,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -11941,24 +12193,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -11981,7 +12233,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -11990,7 +12242,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -12013,22 +12265,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -12036,7 +12288,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -12059,7 +12311,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -12072,7 +12324,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -12095,32 +12347,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -12143,7 +12395,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -12152,7 +12404,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -12175,14 +12427,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -12190,7 +12442,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -12213,14 +12465,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -12243,12 +12495,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -12276,7 +12528,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -12303,13 +12555,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -12337,7 +12589,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -12449,7 +12701,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -12477,7 +12729,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -12505,7 +12757,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -15780,13 +16032,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AT38"/>
+  <dimension ref="A30:DK76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -15794,7 +16046,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:115" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>148</v>
       </c>
@@ -15802,573 +16054,4654 @@
         <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="BO31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="BR31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="BT31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="BY31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="CG31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="CH31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="CI31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="CL31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="CM31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="CN31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="CO31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="CP31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="CQ31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="CR31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="CS31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="CT31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="CU31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="CV31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="CW31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="CX31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="CY31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="CZ31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="DA31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="DB31" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AS31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT31" s="1" t="s">
+      <c r="DC31" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="DD31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DI31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DJ31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DK31" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" t="s">
+        <v>207</v>
+      </c>
+      <c r="N32" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" t="s">
+        <v>207</v>
+      </c>
+      <c r="P32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>207</v>
+      </c>
+      <c r="R32" t="s">
+        <v>207</v>
+      </c>
+      <c r="S32" t="s">
+        <v>207</v>
+      </c>
+      <c r="T32" t="s">
+        <v>207</v>
+      </c>
+      <c r="U32" t="s">
+        <v>207</v>
+      </c>
+      <c r="V32" t="s">
+        <v>207</v>
+      </c>
+      <c r="W32" t="s">
+        <v>207</v>
+      </c>
+      <c r="X32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>240</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>242</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>241</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>242</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>248</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>252</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>255</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>257</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>248</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>247</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>258</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>260</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>248</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>247</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>262</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>241</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>248</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>207</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>246</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>247</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>241</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>207</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>253</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>256</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>256</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>256</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>256</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>233</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>259</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>259</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="BO34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>234</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>254</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>254</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>254</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>254</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>234</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>234</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>267</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>272</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>224</v>
+      </c>
+      <c r="DF36" t="s">
+        <v>272</v>
+      </c>
+      <c r="DG36" t="s">
+        <v>272</v>
+      </c>
+      <c r="DH36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DH37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DI38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" t="s">
-        <v>164</v>
-      </c>
-      <c r="H32" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" t="s">
-        <v>164</v>
-      </c>
-      <c r="K32" t="s">
-        <v>164</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="DJ39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>229</v>
+      </c>
+      <c r="DJ40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" t="s">
+        <v>208</v>
+      </c>
+      <c r="I42" t="s">
+        <v>208</v>
+      </c>
+      <c r="J42" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s">
+        <v>208</v>
+      </c>
+      <c r="M42" t="s">
+        <v>208</v>
+      </c>
+      <c r="N42" t="s">
+        <v>208</v>
+      </c>
+      <c r="O42" t="s">
+        <v>208</v>
+      </c>
+      <c r="P42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>208</v>
+      </c>
+      <c r="R42" t="s">
+        <v>208</v>
+      </c>
+      <c r="S42" t="s">
+        <v>208</v>
+      </c>
+      <c r="T42" t="s">
+        <v>208</v>
+      </c>
+      <c r="U42" t="s">
+        <v>208</v>
+      </c>
+      <c r="V42" t="s">
+        <v>208</v>
+      </c>
+      <c r="W42" t="s">
+        <v>208</v>
+      </c>
+      <c r="X42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>235</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>235</v>
+      </c>
+      <c r="CG42" t="s">
+        <v>235</v>
+      </c>
+      <c r="CR42" t="s">
+        <v>261</v>
+      </c>
+      <c r="DC42" t="s">
+        <v>268</v>
+      </c>
+      <c r="DD42" t="s">
+        <v>268</v>
+      </c>
+      <c r="DE42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" t="s">
+        <v>209</v>
+      </c>
+      <c r="J43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K43" t="s">
+        <v>209</v>
+      </c>
+      <c r="L43" t="s">
+        <v>209</v>
+      </c>
+      <c r="M43" t="s">
+        <v>209</v>
+      </c>
+      <c r="N43" t="s">
+        <v>209</v>
+      </c>
+      <c r="O43" t="s">
+        <v>209</v>
+      </c>
+      <c r="P43" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>209</v>
+      </c>
+      <c r="R43" t="s">
+        <v>209</v>
+      </c>
+      <c r="S43" t="s">
+        <v>209</v>
+      </c>
+      <c r="T43" t="s">
+        <v>209</v>
+      </c>
+      <c r="U43" t="s">
+        <v>209</v>
+      </c>
+      <c r="V43" t="s">
+        <v>209</v>
+      </c>
+      <c r="W43" t="s">
+        <v>209</v>
+      </c>
+      <c r="X43" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>209</v>
+      </c>
+      <c r="CG43" t="s">
+        <v>249</v>
+      </c>
+      <c r="CX43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>244</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>244</v>
+      </c>
+      <c r="CG44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M32" t="s">
+      <c r="CG45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N32" t="s">
+      <c r="BP46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BS46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>236</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>236</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O32" t="s">
+      <c r="DB47" t="s">
+        <v>264</v>
+      </c>
+      <c r="DC47" t="s">
+        <v>264</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>264</v>
+      </c>
+      <c r="DE47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="DB48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="S32" t="s">
+      <c r="DB49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="T32" t="s">
-        <v>176</v>
-      </c>
-      <c r="U32" t="s">
-        <v>177</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="DC50" t="s">
+        <v>269</v>
+      </c>
+      <c r="DD50" t="s">
+        <v>269</v>
+      </c>
+      <c r="DE50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="W32" t="s">
-        <v>164</v>
-      </c>
-      <c r="X32" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y32" t="s">
+      <c r="DC51" t="s">
+        <v>270</v>
+      </c>
+      <c r="DD51" t="s">
+        <v>270</v>
+      </c>
+      <c r="DE51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="DC52" t="s">
+        <v>271</v>
+      </c>
+      <c r="DD52" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" t="s">
+        <v>210</v>
+      </c>
+      <c r="H53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I53" t="s">
+        <v>210</v>
+      </c>
+      <c r="J53" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L53" t="s">
+        <v>210</v>
+      </c>
+      <c r="M53" t="s">
+        <v>210</v>
+      </c>
+      <c r="N53" t="s">
+        <v>210</v>
+      </c>
+      <c r="O53" t="s">
+        <v>210</v>
+      </c>
+      <c r="P53" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>210</v>
+      </c>
+      <c r="R53" t="s">
+        <v>210</v>
+      </c>
+      <c r="S53" t="s">
+        <v>210</v>
+      </c>
+      <c r="T53" t="s">
+        <v>210</v>
+      </c>
+      <c r="U53" t="s">
+        <v>210</v>
+      </c>
+      <c r="V53" t="s">
+        <v>210</v>
+      </c>
+      <c r="W53" t="s">
+        <v>210</v>
+      </c>
+      <c r="X53" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BL53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP53" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>239</v>
+      </c>
+      <c r="BR53" t="s">
+        <v>219</v>
+      </c>
+      <c r="BS53" t="s">
+        <v>219</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>239</v>
+      </c>
+      <c r="BU53" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA53" t="s">
+        <v>219</v>
+      </c>
+      <c r="DC53" t="s">
+        <v>210</v>
+      </c>
+      <c r="DD53" t="s">
+        <v>210</v>
+      </c>
+      <c r="DE53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H54" t="s">
+        <v>211</v>
+      </c>
+      <c r="I54" t="s">
+        <v>211</v>
+      </c>
+      <c r="J54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K54" t="s">
+        <v>211</v>
+      </c>
+      <c r="L54" t="s">
+        <v>211</v>
+      </c>
+      <c r="M54" t="s">
+        <v>211</v>
+      </c>
+      <c r="N54" t="s">
+        <v>211</v>
+      </c>
+      <c r="O54" t="s">
+        <v>211</v>
+      </c>
+      <c r="P54" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>211</v>
+      </c>
+      <c r="R54" t="s">
+        <v>211</v>
+      </c>
+      <c r="S54" t="s">
+        <v>211</v>
+      </c>
+      <c r="T54" t="s">
+        <v>211</v>
+      </c>
+      <c r="U54" t="s">
+        <v>211</v>
+      </c>
+      <c r="V54" t="s">
+        <v>211</v>
+      </c>
+      <c r="W54" t="s">
+        <v>211</v>
+      </c>
+      <c r="X54" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>211</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>230</v>
+      </c>
+      <c r="DF54" t="s">
+        <v>239</v>
+      </c>
+      <c r="DG54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="DF55" t="s">
+        <v>273</v>
+      </c>
+      <c r="DG55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DF56" t="s">
+        <v>274</v>
+      </c>
+      <c r="DG56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AB32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="DF57" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" t="s">
+        <v>212</v>
+      </c>
+      <c r="G58" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" t="s">
+        <v>212</v>
+      </c>
+      <c r="I58" t="s">
+        <v>212</v>
+      </c>
+      <c r="J58" t="s">
+        <v>212</v>
+      </c>
+      <c r="K58" t="s">
+        <v>212</v>
+      </c>
+      <c r="L58" t="s">
+        <v>212</v>
+      </c>
+      <c r="M58" t="s">
+        <v>212</v>
+      </c>
+      <c r="N58" t="s">
+        <v>212</v>
+      </c>
+      <c r="O58" t="s">
+        <v>212</v>
+      </c>
+      <c r="P58" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>212</v>
+      </c>
+      <c r="R58" t="s">
+        <v>212</v>
+      </c>
+      <c r="S58" t="s">
+        <v>212</v>
+      </c>
+      <c r="T58" t="s">
+        <v>212</v>
+      </c>
+      <c r="U58" t="s">
+        <v>212</v>
+      </c>
+      <c r="V58" t="s">
+        <v>212</v>
+      </c>
+      <c r="W58" t="s">
+        <v>212</v>
+      </c>
+      <c r="X58" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BK58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BL58" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" t="s">
+        <v>213</v>
+      </c>
+      <c r="G59" t="s">
+        <v>213</v>
+      </c>
+      <c r="H59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L59" t="s">
+        <v>213</v>
+      </c>
+      <c r="M59" t="s">
+        <v>213</v>
+      </c>
+      <c r="N59" t="s">
+        <v>213</v>
+      </c>
+      <c r="O59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R59" t="s">
+        <v>213</v>
+      </c>
+      <c r="S59" t="s">
+        <v>213</v>
+      </c>
+      <c r="T59" t="s">
+        <v>213</v>
+      </c>
+      <c r="U59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V59" t="s">
+        <v>213</v>
+      </c>
+      <c r="W59" t="s">
+        <v>213</v>
+      </c>
+      <c r="X59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BK59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BL59" t="s">
+        <v>213</v>
+      </c>
+      <c r="BM59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AG32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK32" t="s">
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" t="s">
+        <v>227</v>
+      </c>
+      <c r="H60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60" t="s">
+        <v>227</v>
+      </c>
+      <c r="J60" t="s">
+        <v>214</v>
+      </c>
+      <c r="K60" t="s">
+        <v>227</v>
+      </c>
+      <c r="L60" t="s">
+        <v>227</v>
+      </c>
+      <c r="M60" t="s">
+        <v>227</v>
+      </c>
+      <c r="N60" t="s">
+        <v>227</v>
+      </c>
+      <c r="O60" t="s">
+        <v>214</v>
+      </c>
+      <c r="P60" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>214</v>
+      </c>
+      <c r="R60" t="s">
+        <v>214</v>
+      </c>
+      <c r="S60" t="s">
+        <v>227</v>
+      </c>
+      <c r="T60" t="s">
+        <v>227</v>
+      </c>
+      <c r="U60" t="s">
+        <v>227</v>
+      </c>
+      <c r="V60" t="s">
+        <v>227</v>
+      </c>
+      <c r="W60" t="s">
+        <v>214</v>
+      </c>
+      <c r="X60" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AL32" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" t="s">
-        <v>170</v>
-      </c>
-      <c r="L33" t="s">
-        <v>170</v>
-      </c>
-      <c r="M33" t="s">
-        <v>170</v>
-      </c>
-      <c r="N33" t="s">
-        <v>170</v>
-      </c>
-      <c r="O33" t="s">
-        <v>170</v>
-      </c>
-      <c r="P33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>170</v>
-      </c>
-      <c r="R33" t="s">
-        <v>170</v>
-      </c>
-      <c r="S33" t="s">
-        <v>170</v>
-      </c>
-      <c r="T33" t="s">
-        <v>170</v>
-      </c>
-      <c r="U33" t="s">
-        <v>170</v>
-      </c>
-      <c r="V33" t="s">
-        <v>170</v>
-      </c>
-      <c r="W33" t="s">
-        <v>170</v>
-      </c>
-      <c r="X33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M34" t="s">
-        <v>171</v>
-      </c>
-      <c r="N34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O34" t="s">
-        <v>171</v>
-      </c>
-      <c r="P34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>171</v>
-      </c>
-      <c r="R34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S34" t="s">
-        <v>171</v>
-      </c>
-      <c r="T34" t="s">
-        <v>171</v>
-      </c>
-      <c r="U34" t="s">
-        <v>171</v>
-      </c>
-      <c r="V34" t="s">
-        <v>171</v>
-      </c>
-      <c r="W34" t="s">
-        <v>171</v>
-      </c>
-      <c r="X34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H36" t="s">
-        <v>174</v>
-      </c>
-      <c r="I36" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" t="s">
-        <v>172</v>
-      </c>
-      <c r="K36" t="s">
-        <v>172</v>
-      </c>
-      <c r="P36" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR36" t="s">
+      <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" t="s">
+        <v>215</v>
+      </c>
+      <c r="I61" t="s">
+        <v>215</v>
+      </c>
+      <c r="J61" t="s">
+        <v>215</v>
+      </c>
+      <c r="K61" t="s">
+        <v>215</v>
+      </c>
+      <c r="L61" t="s">
+        <v>215</v>
+      </c>
+      <c r="M61" t="s">
+        <v>215</v>
+      </c>
+      <c r="N61" t="s">
+        <v>215</v>
+      </c>
+      <c r="O61" t="s">
+        <v>215</v>
+      </c>
+      <c r="P61" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>215</v>
+      </c>
+      <c r="R61" t="s">
+        <v>215</v>
+      </c>
+      <c r="S61" t="s">
+        <v>215</v>
+      </c>
+      <c r="T61" t="s">
+        <v>215</v>
+      </c>
+      <c r="U61" t="s">
+        <v>215</v>
+      </c>
+      <c r="V61" t="s">
+        <v>215</v>
+      </c>
+      <c r="W61" t="s">
+        <v>215</v>
+      </c>
+      <c r="X61" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BG61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL61" t="s">
+        <v>215</v>
+      </c>
+      <c r="BM61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AS36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" t="s">
-        <v>173</v>
-      </c>
-      <c r="H37" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" t="s">
-        <v>173</v>
-      </c>
-      <c r="J37" t="s">
-        <v>173</v>
-      </c>
-      <c r="K37" t="s">
-        <v>173</v>
-      </c>
-      <c r="W37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>174</v>
+      <c r="B62" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" t="s">
+        <v>225</v>
+      </c>
+      <c r="H62" t="s">
+        <v>216</v>
+      </c>
+      <c r="I62" t="s">
+        <v>216</v>
+      </c>
+      <c r="J62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K62" t="s">
+        <v>216</v>
+      </c>
+      <c r="L62" t="s">
+        <v>216</v>
+      </c>
+      <c r="M62" t="s">
+        <v>225</v>
+      </c>
+      <c r="N62" t="s">
+        <v>225</v>
+      </c>
+      <c r="O62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P62" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>216</v>
+      </c>
+      <c r="R62" t="s">
+        <v>225</v>
+      </c>
+      <c r="S62" t="s">
+        <v>216</v>
+      </c>
+      <c r="T62" t="s">
+        <v>216</v>
+      </c>
+      <c r="U62" t="s">
+        <v>225</v>
+      </c>
+      <c r="V62" t="s">
+        <v>225</v>
+      </c>
+      <c r="W62" t="s">
+        <v>216</v>
+      </c>
+      <c r="X62" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BG62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:111" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BQ64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BR64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BS64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BT64" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BQ65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BR65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BS65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BT65" t="s">
+        <v>214</v>
+      </c>
+      <c r="BU65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BQ66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BR66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BS66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BT66" t="s">
+        <v>238</v>
+      </c>
+      <c r="BU66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ67" t="s">
+        <v>245</v>
+      </c>
+      <c r="CA67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" t="s">
+        <v>217</v>
+      </c>
+      <c r="E68" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
+      </c>
+      <c r="G68" t="s">
+        <v>217</v>
+      </c>
+      <c r="H68" t="s">
+        <v>217</v>
+      </c>
+      <c r="I68" t="s">
+        <v>217</v>
+      </c>
+      <c r="J68" t="s">
+        <v>217</v>
+      </c>
+      <c r="K68" t="s">
+        <v>217</v>
+      </c>
+      <c r="L68" t="s">
+        <v>217</v>
+      </c>
+      <c r="M68" t="s">
+        <v>217</v>
+      </c>
+      <c r="N68" t="s">
+        <v>217</v>
+      </c>
+      <c r="O68" t="s">
+        <v>217</v>
+      </c>
+      <c r="P68" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>217</v>
+      </c>
+      <c r="R68" t="s">
+        <v>217</v>
+      </c>
+      <c r="S68" t="s">
+        <v>217</v>
+      </c>
+      <c r="T68" t="s">
+        <v>217</v>
+      </c>
+      <c r="U68" t="s">
+        <v>217</v>
+      </c>
+      <c r="V68" t="s">
+        <v>217</v>
+      </c>
+      <c r="W68" t="s">
+        <v>217</v>
+      </c>
+      <c r="X68" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BA68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BB68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BG68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BI68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BJ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BL68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BZ68" t="s">
+        <v>217</v>
+      </c>
+      <c r="CA68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BZ69" t="s">
+        <v>230</v>
+      </c>
+      <c r="CA69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" t="s">
+        <v>218</v>
+      </c>
+      <c r="E70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" t="s">
+        <v>218</v>
+      </c>
+      <c r="G70" t="s">
+        <v>218</v>
+      </c>
+      <c r="H70" t="s">
+        <v>218</v>
+      </c>
+      <c r="I70" t="s">
+        <v>218</v>
+      </c>
+      <c r="J70" t="s">
+        <v>218</v>
+      </c>
+      <c r="K70" t="s">
+        <v>218</v>
+      </c>
+      <c r="L70" t="s">
+        <v>218</v>
+      </c>
+      <c r="M70" t="s">
+        <v>218</v>
+      </c>
+      <c r="N70" t="s">
+        <v>218</v>
+      </c>
+      <c r="O70" t="s">
+        <v>218</v>
+      </c>
+      <c r="P70" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>218</v>
+      </c>
+      <c r="R70" t="s">
+        <v>218</v>
+      </c>
+      <c r="S70" t="s">
+        <v>218</v>
+      </c>
+      <c r="T70" t="s">
+        <v>218</v>
+      </c>
+      <c r="U70" t="s">
+        <v>218</v>
+      </c>
+      <c r="V70" t="s">
+        <v>218</v>
+      </c>
+      <c r="W70" t="s">
+        <v>218</v>
+      </c>
+      <c r="X70" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BH70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BK70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>218</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" t="s">
+        <v>219</v>
+      </c>
+      <c r="F71" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" t="s">
+        <v>219</v>
+      </c>
+      <c r="H71" t="s">
+        <v>219</v>
+      </c>
+      <c r="I71" t="s">
+        <v>219</v>
+      </c>
+      <c r="J71" t="s">
+        <v>219</v>
+      </c>
+      <c r="K71" t="s">
+        <v>219</v>
+      </c>
+      <c r="L71" t="s">
+        <v>219</v>
+      </c>
+      <c r="M71" t="s">
+        <v>219</v>
+      </c>
+      <c r="N71" t="s">
+        <v>219</v>
+      </c>
+      <c r="O71" t="s">
+        <v>219</v>
+      </c>
+      <c r="P71" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>219</v>
+      </c>
+      <c r="R71" t="s">
+        <v>219</v>
+      </c>
+      <c r="S71" t="s">
+        <v>219</v>
+      </c>
+      <c r="T71" t="s">
+        <v>219</v>
+      </c>
+      <c r="U71" t="s">
+        <v>219</v>
+      </c>
+      <c r="V71" t="s">
+        <v>219</v>
+      </c>
+      <c r="W71" t="s">
+        <v>219</v>
+      </c>
+      <c r="X71" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BI71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BK71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" t="s">
+        <v>220</v>
+      </c>
+      <c r="G72" t="s">
+        <v>226</v>
+      </c>
+      <c r="H72" t="s">
+        <v>220</v>
+      </c>
+      <c r="I72" t="s">
+        <v>226</v>
+      </c>
+      <c r="J72" t="s">
+        <v>220</v>
+      </c>
+      <c r="K72" t="s">
+        <v>226</v>
+      </c>
+      <c r="L72" t="s">
+        <v>220</v>
+      </c>
+      <c r="M72" t="s">
+        <v>226</v>
+      </c>
+      <c r="N72" t="s">
+        <v>220</v>
+      </c>
+      <c r="O72" t="s">
+        <v>226</v>
+      </c>
+      <c r="P72" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>220</v>
+      </c>
+      <c r="R72" t="s">
+        <v>220</v>
+      </c>
+      <c r="S72" t="s">
+        <v>226</v>
+      </c>
+      <c r="T72" t="s">
+        <v>220</v>
+      </c>
+      <c r="U72" t="s">
+        <v>226</v>
+      </c>
+      <c r="V72" t="s">
+        <v>220</v>
+      </c>
+      <c r="W72" t="s">
+        <v>226</v>
+      </c>
+      <c r="X72" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BG72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BH72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BJ72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK72" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL72" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" t="s">
+        <v>221</v>
+      </c>
+      <c r="H73" t="s">
+        <v>221</v>
+      </c>
+      <c r="I73" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" t="s">
+        <v>221</v>
+      </c>
+      <c r="K73" t="s">
+        <v>221</v>
+      </c>
+      <c r="L73" t="s">
+        <v>221</v>
+      </c>
+      <c r="M73" t="s">
+        <v>221</v>
+      </c>
+      <c r="N73" t="s">
+        <v>221</v>
+      </c>
+      <c r="O73" t="s">
+        <v>221</v>
+      </c>
+      <c r="P73" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>221</v>
+      </c>
+      <c r="R73" t="s">
+        <v>221</v>
+      </c>
+      <c r="S73" t="s">
+        <v>221</v>
+      </c>
+      <c r="T73" t="s">
+        <v>221</v>
+      </c>
+      <c r="U73" t="s">
+        <v>221</v>
+      </c>
+      <c r="V73" t="s">
+        <v>221</v>
+      </c>
+      <c r="W73" t="s">
+        <v>221</v>
+      </c>
+      <c r="X73" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BF73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BG73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BH73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BI73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BL73" t="s">
+        <v>221</v>
+      </c>
+      <c r="BM73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" t="s">
+        <v>222</v>
+      </c>
+      <c r="H74" t="s">
+        <v>222</v>
+      </c>
+      <c r="I74" t="s">
+        <v>222</v>
+      </c>
+      <c r="J74" t="s">
+        <v>222</v>
+      </c>
+      <c r="K74" t="s">
+        <v>222</v>
+      </c>
+      <c r="L74" t="s">
+        <v>222</v>
+      </c>
+      <c r="M74" t="s">
+        <v>222</v>
+      </c>
+      <c r="N74" t="s">
+        <v>222</v>
+      </c>
+      <c r="O74" t="s">
+        <v>222</v>
+      </c>
+      <c r="P74" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>222</v>
+      </c>
+      <c r="R74" t="s">
+        <v>222</v>
+      </c>
+      <c r="S74" t="s">
+        <v>222</v>
+      </c>
+      <c r="T74" t="s">
+        <v>222</v>
+      </c>
+      <c r="U74" t="s">
+        <v>222</v>
+      </c>
+      <c r="V74" t="s">
+        <v>222</v>
+      </c>
+      <c r="W74" t="s">
+        <v>222</v>
+      </c>
+      <c r="X74" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BI74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL74" t="s">
+        <v>222</v>
+      </c>
+      <c r="BM74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" t="s">
+        <v>223</v>
+      </c>
+      <c r="H75" t="s">
+        <v>223</v>
+      </c>
+      <c r="I75" t="s">
+        <v>223</v>
+      </c>
+      <c r="J75" t="s">
+        <v>223</v>
+      </c>
+      <c r="K75" t="s">
+        <v>223</v>
+      </c>
+      <c r="L75" t="s">
+        <v>223</v>
+      </c>
+      <c r="M75" t="s">
+        <v>223</v>
+      </c>
+      <c r="N75" t="s">
+        <v>223</v>
+      </c>
+      <c r="O75" t="s">
+        <v>223</v>
+      </c>
+      <c r="P75" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>223</v>
+      </c>
+      <c r="R75" t="s">
+        <v>223</v>
+      </c>
+      <c r="S75" t="s">
+        <v>223</v>
+      </c>
+      <c r="T75" t="s">
+        <v>223</v>
+      </c>
+      <c r="U75" t="s">
+        <v>223</v>
+      </c>
+      <c r="V75" t="s">
+        <v>223</v>
+      </c>
+      <c r="W75" t="s">
+        <v>223</v>
+      </c>
+      <c r="X75" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BG75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BI75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BK75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL75" t="s">
+        <v>223</v>
+      </c>
+      <c r="BM75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" t="s">
+        <v>224</v>
+      </c>
+      <c r="G76" t="s">
+        <v>224</v>
+      </c>
+      <c r="H76" t="s">
+        <v>224</v>
+      </c>
+      <c r="I76" t="s">
+        <v>224</v>
+      </c>
+      <c r="J76" t="s">
+        <v>224</v>
+      </c>
+      <c r="K76" t="s">
+        <v>224</v>
+      </c>
+      <c r="L76" t="s">
+        <v>224</v>
+      </c>
+      <c r="M76" t="s">
+        <v>224</v>
+      </c>
+      <c r="N76" t="s">
+        <v>224</v>
+      </c>
+      <c r="O76" t="s">
+        <v>224</v>
+      </c>
+      <c r="P76" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>224</v>
+      </c>
+      <c r="R76" t="s">
+        <v>224</v>
+      </c>
+      <c r="S76" t="s">
+        <v>224</v>
+      </c>
+      <c r="T76" t="s">
+        <v>224</v>
+      </c>
+      <c r="U76" t="s">
+        <v>224</v>
+      </c>
+      <c r="V76" t="s">
+        <v>224</v>
+      </c>
+      <c r="W76" t="s">
+        <v>224</v>
+      </c>
+      <c r="X76" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BG76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BI76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL76" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM76" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
